--- a/tables/XLS/type_of_evolution-SUMMARY.xlsx
+++ b/tables/XLS/type_of_evolution-SUMMARY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Notebooks\Class\final\tables\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class\Schraiber\BIOL8250-final\tables\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Increase</t>
   </si>
@@ -37,26 +37,41 @@
   <si>
     <t>Translational
 Efficiency</t>
+  </si>
+  <si>
+    <t># of
+genes</t>
+  </si>
+  <si>
+    <t>All Genes</t>
+  </si>
+  <si>
+    <t>Significant (FDR &lt; 10%)
+Differential Expression AND Translational Efficiency</t>
+  </si>
+  <si>
+    <t>Table 2.</t>
+  </si>
+  <si>
+    <t>Table 1.</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Coordinated</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 n=1917</t>
@@ -66,49 +81,41 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Compensatory</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 n=3519</t>
     </r>
   </si>
   <si>
-    <t># of
-genes</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Coordinated</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 n=42</t>
@@ -118,39 +125,30 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Compensatory</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 n=215</t>
     </r>
-  </si>
-  <si>
-    <t>All Genes</t>
-  </si>
-  <si>
-    <t>Significant (FDR &lt; 10%)
-Differential Expression AND Translational Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +157,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -196,10 +199,195 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -208,28 +396,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +719,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +730,9 @@
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -535,144 +740,175 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>888</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1029</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1813</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1706</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="E11" s="10">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="E12" s="14">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="E13" s="10">
+        <v>168</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="E14" s="14">
         <v>47</v>
       </c>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
